--- a/Blatt4/Leistungsanalyse Messung 1/Leistungsanalyse Messung 1 Zeilen.xlsx
+++ b/Blatt4/Leistungsanalyse Messung 1/Leistungsanalyse Messung 1 Zeilen.xlsx
@@ -43,17 +43,17 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="#,##0.00\ [$€-407];[RED]\-#,##0.00\ [$€-407]"/>
-    <numFmt numFmtId="166" formatCode="0.00"/>
-    <numFmt numFmtId="167" formatCode="0"/>
+    <numFmt numFmtId="165" formatCode="0.00"/>
+    <numFmt numFmtId="166" formatCode="0"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -72,32 +72,26 @@
     </font>
     <font>
       <b val="true"/>
-      <i val="true"/>
-      <u val="single"/>
       <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
-      <b val="true"/>
-      <i val="true"/>
-      <sz val="16"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b val="true"/>
       <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="13"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -110,7 +104,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -128,19 +122,12 @@
     <border diagonalUp="false" diagonalDown="false">
       <left style="hair"/>
       <right style="hair"/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="hair"/>
-      <right style="hair"/>
-      <top/>
+      <top style="hair"/>
       <bottom style="hair"/>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="24">
+  <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -164,21 +151,13 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="90" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -186,30 +165,18 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="10">
+  <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Ergebnis" xfId="20" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Ergebnis2" xfId="21" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Überschrift" xfId="22" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Überschrift1" xfId="23" builtinId="53" customBuiltin="true"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -221,7 +188,7 @@
       <rgbColor rgb="FFFFFF00"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF7E0021"/>
+      <rgbColor rgb="FF800000"/>
       <rgbColor rgb="FF008000"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FF808000"/>
@@ -338,25 +305,26 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="7e0021"/>
+              <a:srgbClr val="0000ff"/>
             </a:solidFill>
-            <a:ln w="28800">
+            <a:ln w="18000">
               <a:solidFill>
-                <a:srgbClr val="7e0021"/>
+                <a:srgbClr val="0000ff"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
           </c:spPr>
           <c:marker>
-            <c:symbol val="triangle"/>
-            <c:size val="8"/>
+            <c:symbol val="square"/>
+            <c:size val="4"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="7e0021"/>
+                <a:srgbClr val="0000ff"/>
               </a:solidFill>
             </c:spPr>
           </c:marker>
           <c:dLbls>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -370,40 +338,40 @@
               <c:strCache>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -415,40 +383,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
+                  <c:v>526.183444333333</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>297.929606333333</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>178.375508333333</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>134.036886666667</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>107.249395333333</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>89.151824</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>76.7751413333333</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>67.4117503333333</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>60.170599</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>54.1558896666667</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>51.1917013333333</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>50.4662233333333</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>51.1917013333333</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>54.1558896666667</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>60.170599</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>67.4117503333333</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>76.7751413333333</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>89.151824</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>107.249395333333</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>134.036886666667</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>178.375508333333</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>297.929606333333</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>526.183444333333</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -463,11 +431,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="79922134"/>
-        <c:axId val="6571722"/>
+        <c:axId val="71596640"/>
+        <c:axId val="83980029"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="79922134"/>
+        <c:axId val="71596640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -513,8 +481,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.439896036387264"/>
-              <c:y val="0.888592007434944"/>
+              <c:x val="0.439839399041575"/>
+              <c:y val="0.888488790800325"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -548,14 +516,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="6571722"/>
+        <c:crossAx val="83980029"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="6571722"/>
+        <c:axId val="83980029"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -610,8 +578,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.0284600389863548"/>
-              <c:y val="0.720957249070632"/>
+              <c:x val="0.0284289599792773"/>
+              <c:y val="0.720873504472064"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -645,7 +613,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="79922134"/>
+        <c:crossAx val="71596640"/>
         <c:crossesAt val="1"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -679,13 +647,13 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>86400</xdr:rowOff>
+      <xdr:rowOff>93960</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>663480</xdr:colOff>
+      <xdr:colOff>663120</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>96480</xdr:rowOff>
+      <xdr:rowOff>103680</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -694,7 +662,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="2370960"/>
-        <a:ext cx="5555880" cy="3099240"/>
+        <a:ext cx="5558760" cy="3098880"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -715,7 +683,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J36" activeCellId="0" sqref="J36"/>
+      <selection pane="topLeft" activeCell="J34" activeCellId="0" sqref="J34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -741,231 +709,231 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="n">
-        <v>12</v>
+        <f aca="false">A3-1</f>
+        <v>1</v>
       </c>
       <c r="B2" s="3" t="n">
-        <v>52.484309</v>
+        <v>526.248069</v>
       </c>
       <c r="C2" s="3" t="n">
-        <v>48.086733</v>
+        <v>526.356097</v>
       </c>
       <c r="D2" s="3" t="n">
-        <v>50.827628</v>
+        <v>525.946167</v>
       </c>
       <c r="E2" s="3" t="n">
         <f aca="false">(B2+C2+D2)/3</f>
-        <v>50.4662233333333</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>526.183444333333</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="n">
-        <f aca="false">A2-1</f>
-        <v>11</v>
+        <f aca="false">A4-1</f>
+        <v>2</v>
       </c>
       <c r="B3" s="3" t="n">
-        <v>52.278114</v>
+        <v>264.543874</v>
       </c>
       <c r="C3" s="3" t="n">
-        <v>49.954333</v>
+        <v>264.663149</v>
       </c>
       <c r="D3" s="3" t="n">
-        <v>51.342657</v>
+        <v>364.581796</v>
       </c>
       <c r="E3" s="3" t="n">
         <f aca="false">(B3+C3+D3)/3</f>
-        <v>51.1917013333333</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>297.929606333333</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="n">
-        <f aca="false">A3-1</f>
-        <v>10</v>
+        <f aca="false">A5-1</f>
+        <v>3</v>
       </c>
       <c r="B4" s="3" t="n">
-        <v>54.426621</v>
+        <v>178.451232</v>
       </c>
       <c r="C4" s="3" t="n">
-        <v>54.028095</v>
+        <v>178.663891</v>
       </c>
       <c r="D4" s="3" t="n">
-        <v>54.012953</v>
+        <v>178.011402</v>
       </c>
       <c r="E4" s="3" t="n">
         <f aca="false">(B4+C4+D4)/3</f>
-        <v>54.1558896666667</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>178.375508333333</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="n">
-        <f aca="false">A4-1</f>
-        <v>9</v>
+        <f aca="false">A6-1</f>
+        <v>4</v>
       </c>
       <c r="B5" s="3" t="n">
-        <v>60.242885</v>
+        <v>133.436643</v>
       </c>
       <c r="C5" s="3" t="n">
-        <v>60.251186</v>
+        <v>135.165644</v>
       </c>
       <c r="D5" s="3" t="n">
-        <v>60.017726</v>
+        <v>133.508373</v>
       </c>
       <c r="E5" s="3" t="n">
         <f aca="false">(B5+C5+D5)/3</f>
-        <v>60.170599</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>134.036886666667</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="n">
-        <f aca="false">A5-1</f>
-        <v>8</v>
+        <f aca="false">A7-1</f>
+        <v>5</v>
       </c>
       <c r="B6" s="3" t="n">
-        <v>67.396611</v>
+        <v>107.279975</v>
       </c>
       <c r="C6" s="3" t="n">
-        <v>67.37128</v>
+        <v>107.113236</v>
       </c>
       <c r="D6" s="3" t="n">
-        <v>67.46736</v>
+        <v>107.354975</v>
       </c>
       <c r="E6" s="3" t="n">
         <f aca="false">(B6+C6+D6)/3</f>
-        <v>67.4117503333333</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>107.249395333333</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="n">
-        <f aca="false">A6-1</f>
-        <v>7</v>
+        <f aca="false">A8-1</f>
+        <v>6</v>
       </c>
       <c r="B7" s="3" t="n">
-        <v>76.952212</v>
+        <v>89.114776</v>
       </c>
       <c r="C7" s="3" t="n">
-        <v>76.766124</v>
+        <v>88.962245</v>
       </c>
       <c r="D7" s="3" t="n">
-        <v>76.607088</v>
+        <v>89.378451</v>
       </c>
       <c r="E7" s="3" t="n">
         <f aca="false">(B7+C7+D7)/3</f>
-        <v>76.7751413333333</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>89.151824</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="n">
-        <f aca="false">A7-1</f>
-        <v>6</v>
+        <f aca="false">A9-1</f>
+        <v>7</v>
       </c>
       <c r="B8" s="3" t="n">
-        <v>89.114776</v>
+        <v>76.952212</v>
       </c>
       <c r="C8" s="3" t="n">
-        <v>88.962245</v>
+        <v>76.766124</v>
       </c>
       <c r="D8" s="3" t="n">
-        <v>89.378451</v>
+        <v>76.607088</v>
       </c>
       <c r="E8" s="3" t="n">
         <f aca="false">(B8+C8+D8)/3</f>
-        <v>89.151824</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>76.7751413333333</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="n">
-        <f aca="false">A8-1</f>
-        <v>5</v>
+        <f aca="false">A10-1</f>
+        <v>8</v>
       </c>
       <c r="B9" s="3" t="n">
-        <v>107.279975</v>
+        <v>67.396611</v>
       </c>
       <c r="C9" s="3" t="n">
-        <v>107.113236</v>
+        <v>67.37128</v>
       </c>
       <c r="D9" s="3" t="n">
-        <v>107.354975</v>
+        <v>67.46736</v>
       </c>
       <c r="E9" s="3" t="n">
         <f aca="false">(B9+C9+D9)/3</f>
-        <v>107.249395333333</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>67.4117503333333</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="n">
-        <f aca="false">A9-1</f>
-        <v>4</v>
+        <f aca="false">A11-1</f>
+        <v>9</v>
       </c>
       <c r="B10" s="3" t="n">
-        <v>133.436643</v>
+        <v>60.242885</v>
       </c>
       <c r="C10" s="3" t="n">
-        <v>135.165644</v>
+        <v>60.251186</v>
       </c>
       <c r="D10" s="3" t="n">
-        <v>133.508373</v>
+        <v>60.017726</v>
       </c>
       <c r="E10" s="3" t="n">
         <f aca="false">(B10+C10+D10)/3</f>
-        <v>134.036886666667</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>60.170599</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="n">
-        <f aca="false">A10-1</f>
-        <v>3</v>
+        <f aca="false">A12-1</f>
+        <v>10</v>
       </c>
       <c r="B11" s="3" t="n">
-        <v>178.451232</v>
+        <v>54.426621</v>
       </c>
       <c r="C11" s="3" t="n">
-        <v>178.663891</v>
+        <v>54.028095</v>
       </c>
       <c r="D11" s="3" t="n">
-        <v>178.011402</v>
+        <v>54.012953</v>
       </c>
       <c r="E11" s="3" t="n">
         <f aca="false">(B11+C11+D11)/3</f>
-        <v>178.375508333333</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>54.1558896666667</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="n">
-        <f aca="false">A11-1</f>
-        <v>2</v>
+        <f aca="false">A13-1</f>
+        <v>11</v>
       </c>
       <c r="B12" s="3" t="n">
-        <v>264.543874</v>
+        <v>52.278114</v>
       </c>
       <c r="C12" s="3" t="n">
-        <v>264.663149</v>
+        <v>49.954333</v>
       </c>
       <c r="D12" s="3" t="n">
-        <v>364.581796</v>
+        <v>51.342657</v>
       </c>
       <c r="E12" s="3" t="n">
         <f aca="false">(B12+C12+D12)/3</f>
-        <v>297.929606333333</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="4" t="n">
-        <f aca="false">A12-1</f>
-        <v>1</v>
-      </c>
-      <c r="B13" s="5" t="n">
-        <v>526.248069</v>
-      </c>
-      <c r="C13" s="5" t="n">
-        <v>526.356097</v>
-      </c>
-      <c r="D13" s="5" t="n">
-        <v>525.946167</v>
-      </c>
-      <c r="E13" s="5" t="n">
+        <v>51.1917013333333</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" s="3" t="n">
+        <v>52.484309</v>
+      </c>
+      <c r="C13" s="3" t="n">
+        <v>48.086733</v>
+      </c>
+      <c r="D13" s="3" t="n">
+        <v>50.827628</v>
+      </c>
+      <c r="E13" s="3" t="n">
         <f aca="false">(B13+C13+D13)/3</f>
-        <v>526.183444333333</v>
+        <v>50.4662233333333</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -989,7 +957,7 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -1003,7 +971,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
@@ -1018,7 +986,7 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -1032,7 +1000,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
